--- a/fuentes/contenidos/grado10/guion01/EscaletaCN_10_01F.xlsx
+++ b/fuentes/contenidos/grado10/guion01/EscaletaCN_10_01F.xlsx
@@ -1151,34 +1151,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1220,10 +1206,24 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="115">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -1645,9 +1645,9 @@
   <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:V284"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1675,94 +1675,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="30" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="K1" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="M1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="56"/>
-      <c r="O1" s="36" t="s">
+      <c r="N1" s="52"/>
+      <c r="O1" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="Q1" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="R1" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="S1" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="T1" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="38" t="s">
+      <c r="U1" s="55" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="51"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="47"/>
       <c r="M2" s="31" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="39"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="56"/>
     </row>
     <row r="3" spans="1:22" ht="16" thickTop="1">
       <c r="A3" s="18" t="s">
@@ -2876,7 +2876,7 @@
       <c r="P21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="59">
+      <c r="Q21" s="36">
         <v>10</v>
       </c>
       <c r="R21" s="11" t="s">
@@ -3169,7 +3169,7 @@
       <c r="P26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="59">
+      <c r="Q26" s="36">
         <v>10</v>
       </c>
       <c r="R26" s="11" t="s">
@@ -3658,7 +3658,7 @@
       <c r="D35" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="E35" s="60"/>
+      <c r="E35" s="37"/>
       <c r="F35" s="9"/>
       <c r="G35" s="22" t="s">
         <v>238</v>
@@ -3703,7 +3703,7 @@
       <c r="D36" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="E36" s="60"/>
+      <c r="E36" s="37"/>
       <c r="F36" s="9"/>
       <c r="G36" s="22" t="s">
         <v>239</v>
@@ -3760,7 +3760,7 @@
       <c r="D37" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="E37" s="60"/>
+      <c r="E37" s="37"/>
       <c r="F37" s="9"/>
       <c r="G37" s="22" t="s">
         <v>239</v>
@@ -3817,7 +3817,7 @@
       <c r="D38" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="E38" s="60"/>
+      <c r="E38" s="37"/>
       <c r="F38" s="9"/>
       <c r="G38" s="22" t="s">
         <v>239</v>
@@ -3902,7 +3902,7 @@
       <c r="P39" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q39" s="59">
+      <c r="Q39" s="36">
         <v>10</v>
       </c>
       <c r="R39" s="11" t="s">
@@ -4997,6 +4997,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5011,12 +5017,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/fuentes/contenidos/grado10/guion01/EscaletaCN_10_01F.xlsx
+++ b/fuentes/contenidos/grado10/guion01/EscaletaCN_10_01F.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado10\guion01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1960" windowWidth="19200" windowHeight="11600"/>
+    <workbookView xWindow="2775" yWindow="1965" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
     <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$39</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1155,16 +1160,34 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1204,24 +1227,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1642,129 +1647,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:V284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4:K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="37.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.83203125" customWidth="1"/>
-    <col min="6" max="6" width="35.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="62.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.85546875" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="62.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
     <col min="10" max="10" width="119" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="21.6640625" customWidth="1"/>
-    <col min="13" max="14" width="9.33203125" customWidth="1"/>
-    <col min="15" max="15" width="51.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="20.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" customWidth="1"/>
+    <col min="13" max="14" width="9.28515625" customWidth="1"/>
+    <col min="15" max="15" width="51.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.28515625" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="49.1640625" customWidth="1"/>
-    <col min="21" max="21" width="21.6640625" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="49.140625" customWidth="1"/>
+    <col min="21" max="21" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="30" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:22" s="30" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="M1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="52"/>
-      <c r="O1" s="40" t="s">
+      <c r="N1" s="58"/>
+      <c r="O1" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="40" t="s">
+      <c r="P1" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="55" t="s">
+      <c r="Q1" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="59" t="s">
+      <c r="R1" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="55" t="s">
+      <c r="S1" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="57" t="s">
+      <c r="T1" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="55" t="s">
+      <c r="U1" s="40" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="47"/>
+    <row r="2" spans="1:22" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="51"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="53"/>
       <c r="M2" s="31" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="56"/>
-    </row>
-    <row r="3" spans="1:22" ht="16" thickTop="1">
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="41"/>
+    </row>
+    <row r="3" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
@@ -1823,7 +1828,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15">
+    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>17</v>
       </c>
@@ -1882,7 +1887,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15" customHeight="1">
+    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>17</v>
       </c>
@@ -1939,7 +1944,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15" customHeight="1">
+    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>17</v>
       </c>
@@ -1996,7 +2001,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15" customHeight="1">
+    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>17</v>
       </c>
@@ -2055,7 +2060,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15">
+    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
@@ -2112,7 +2117,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15">
+    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>17</v>
       </c>
@@ -2169,7 +2174,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15">
+    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>17</v>
       </c>
@@ -2228,7 +2233,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15">
+    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>17</v>
       </c>
@@ -2289,7 +2294,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15">
+    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -2350,7 +2355,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15">
+    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>17</v>
       </c>
@@ -2411,7 +2416,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15">
+    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>17</v>
       </c>
@@ -2470,7 +2475,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15">
+    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>17</v>
       </c>
@@ -2533,7 +2538,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="16">
+    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
@@ -2595,7 +2600,7 @@
       </c>
       <c r="V16" s="35"/>
     </row>
-    <row r="17" spans="1:21" ht="15">
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>17</v>
       </c>
@@ -2654,7 +2659,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15">
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>17</v>
       </c>
@@ -2713,7 +2718,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15">
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>17</v>
       </c>
@@ -2772,7 +2777,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15">
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>17</v>
       </c>
@@ -2833,7 +2838,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15">
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>17</v>
       </c>
@@ -2892,7 +2897,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15">
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>17</v>
       </c>
@@ -2951,7 +2956,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15">
+    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>17</v>
       </c>
@@ -3010,7 +3015,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15">
+    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>17</v>
       </c>
@@ -3069,7 +3074,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15">
+    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>17</v>
       </c>
@@ -3126,7 +3131,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15">
+    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>17</v>
       </c>
@@ -3185,7 +3190,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15">
+    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>17</v>
       </c>
@@ -3242,7 +3247,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15">
+    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>17</v>
       </c>
@@ -3301,7 +3306,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15">
+    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>17</v>
       </c>
@@ -3358,7 +3363,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15">
+    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>17</v>
       </c>
@@ -3415,7 +3420,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15">
+    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>17</v>
       </c>
@@ -3472,7 +3477,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15">
+    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>17</v>
       </c>
@@ -3531,7 +3536,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15">
+    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>17</v>
       </c>
@@ -3588,7 +3593,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15">
+    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>17</v>
       </c>
@@ -3645,7 +3650,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15">
+    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>17</v>
       </c>
@@ -3690,7 +3695,7 @@
       <c r="T35" s="12"/>
       <c r="U35" s="10"/>
     </row>
-    <row r="36" spans="1:21" ht="15">
+    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>17</v>
       </c>
@@ -3747,7 +3752,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15">
+    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>17</v>
       </c>
@@ -3804,7 +3809,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15">
+    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>17</v>
       </c>
@@ -3861,7 +3866,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15">
+    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>17</v>
       </c>
@@ -3918,7 +3923,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15">
+    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="13"/>
       <c r="C40" s="14"/>
@@ -3941,7 +3946,7 @@
       <c r="T40" s="12"/>
       <c r="U40" s="10"/>
     </row>
-    <row r="41" spans="1:21" ht="15">
+    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="13"/>
       <c r="C41" s="14"/>
@@ -3964,7 +3969,7 @@
       <c r="T41" s="12"/>
       <c r="U41" s="10"/>
     </row>
-    <row r="42" spans="1:21" ht="15">
+    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="13"/>
       <c r="C42" s="14"/>
@@ -3987,7 +3992,7 @@
       <c r="T42" s="12"/>
       <c r="U42" s="10"/>
     </row>
-    <row r="43" spans="1:21" ht="15">
+    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="13"/>
       <c r="C43" s="14"/>
@@ -4010,7 +4015,7 @@
       <c r="T43" s="12"/>
       <c r="U43" s="10"/>
     </row>
-    <row r="44" spans="1:21" ht="15">
+    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="13"/>
       <c r="C44" s="14"/>
@@ -4033,7 +4038,7 @@
       <c r="T44" s="12"/>
       <c r="U44" s="10"/>
     </row>
-    <row r="45" spans="1:21" ht="15">
+    <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="13"/>
       <c r="C45" s="14"/>
@@ -4056,7 +4061,7 @@
       <c r="T45" s="12"/>
       <c r="U45" s="10"/>
     </row>
-    <row r="46" spans="1:21" ht="15">
+    <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="13"/>
       <c r="C46" s="14"/>
@@ -4079,7 +4084,7 @@
       <c r="T46" s="12"/>
       <c r="U46" s="10"/>
     </row>
-    <row r="47" spans="1:21" ht="15">
+    <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="13"/>
       <c r="C47" s="14"/>
@@ -4102,7 +4107,7 @@
       <c r="T47" s="12"/>
       <c r="U47" s="10"/>
     </row>
-    <row r="48" spans="1:21" ht="15">
+    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="13"/>
       <c r="C48" s="14"/>
@@ -4125,7 +4130,7 @@
       <c r="T48" s="12"/>
       <c r="U48" s="10"/>
     </row>
-    <row r="49" spans="1:21" ht="15">
+    <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
@@ -4148,7 +4153,7 @@
       <c r="T49" s="12"/>
       <c r="U49" s="10"/>
     </row>
-    <row r="50" spans="1:21" ht="15">
+    <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
@@ -4171,7 +4176,7 @@
       <c r="T50" s="12"/>
       <c r="U50" s="10"/>
     </row>
-    <row r="51" spans="1:21" ht="15">
+    <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
@@ -4194,7 +4199,7 @@
       <c r="T51" s="12"/>
       <c r="U51" s="10"/>
     </row>
-    <row r="52" spans="1:21" ht="15">
+    <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
@@ -4217,7 +4222,7 @@
       <c r="T52" s="12"/>
       <c r="U52" s="10"/>
     </row>
-    <row r="53" spans="1:21" ht="15">
+    <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -4240,7 +4245,7 @@
       <c r="T53" s="12"/>
       <c r="U53" s="10"/>
     </row>
-    <row r="54" spans="1:21" ht="15">
+    <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -4263,7 +4268,7 @@
       <c r="T54" s="12"/>
       <c r="U54" s="10"/>
     </row>
-    <row r="55" spans="1:21" ht="15">
+    <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -4286,7 +4291,7 @@
       <c r="T55" s="12"/>
       <c r="U55" s="10"/>
     </row>
-    <row r="56" spans="1:21" ht="15">
+    <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -4309,7 +4314,7 @@
       <c r="T56" s="12"/>
       <c r="U56" s="10"/>
     </row>
-    <row r="57" spans="1:21" ht="15">
+    <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
@@ -4332,7 +4337,7 @@
       <c r="T57" s="12"/>
       <c r="U57" s="10"/>
     </row>
-    <row r="58" spans="1:21" ht="15">
+    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
@@ -4355,7 +4360,7 @@
       <c r="T58" s="12"/>
       <c r="U58" s="10"/>
     </row>
-    <row r="59" spans="1:21" ht="15">
+    <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
@@ -4378,7 +4383,7 @@
       <c r="T59" s="12"/>
       <c r="U59" s="10"/>
     </row>
-    <row r="60" spans="1:21" ht="15">
+    <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -4401,7 +4406,7 @@
       <c r="T60" s="12"/>
       <c r="U60" s="10"/>
     </row>
-    <row r="61" spans="1:21" ht="15">
+    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -4424,7 +4429,7 @@
       <c r="T61" s="12"/>
       <c r="U61" s="10"/>
     </row>
-    <row r="62" spans="1:21" ht="15">
+    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -4447,7 +4452,7 @@
       <c r="T62" s="12"/>
       <c r="U62" s="10"/>
     </row>
-    <row r="63" spans="1:21" ht="15">
+    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -4470,7 +4475,7 @@
       <c r="T63" s="12"/>
       <c r="U63" s="10"/>
     </row>
-    <row r="64" spans="1:21" ht="15">
+    <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -4493,7 +4498,7 @@
       <c r="T64" s="12"/>
       <c r="U64" s="10"/>
     </row>
-    <row r="65" spans="1:21" ht="15">
+    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="13"/>
       <c r="C65" s="14"/>
@@ -4516,7 +4521,7 @@
       <c r="T65" s="12"/>
       <c r="U65" s="10"/>
     </row>
-    <row r="66" spans="1:21" ht="15">
+    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="13"/>
       <c r="C66" s="14"/>
@@ -4539,7 +4544,7 @@
       <c r="T66" s="12"/>
       <c r="U66" s="10"/>
     </row>
-    <row r="67" spans="1:21" ht="15">
+    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="13"/>
       <c r="C67" s="14"/>
@@ -4562,7 +4567,7 @@
       <c r="T67" s="12"/>
       <c r="U67" s="10"/>
     </row>
-    <row r="68" spans="1:21" ht="15">
+    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="13"/>
       <c r="C68" s="14"/>
@@ -4585,7 +4590,7 @@
       <c r="T68" s="12"/>
       <c r="U68" s="10"/>
     </row>
-    <row r="69" spans="1:21" ht="15">
+    <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="13"/>
       <c r="C69" s="14"/>
@@ -4608,7 +4613,7 @@
       <c r="T69" s="12"/>
       <c r="U69" s="10"/>
     </row>
-    <row r="70" spans="1:21" ht="15">
+    <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="13"/>
       <c r="C70" s="14"/>
@@ -4631,378 +4636,372 @@
       <c r="T70" s="12"/>
       <c r="U70" s="10"/>
     </row>
-    <row r="72" spans="1:21" hidden="1"/>
-    <row r="73" spans="1:21" hidden="1"/>
-    <row r="74" spans="1:21" hidden="1"/>
-    <row r="75" spans="1:21" hidden="1"/>
-    <row r="76" spans="1:21" hidden="1"/>
-    <row r="77" spans="1:21" hidden="1"/>
-    <row r="78" spans="1:21" hidden="1"/>
-    <row r="79" spans="1:21" hidden="1"/>
-    <row r="80" spans="1:21" hidden="1"/>
-    <row r="81" spans="1:1" hidden="1"/>
-    <row r="82" spans="1:1" hidden="1"/>
-    <row r="83" spans="1:1" hidden="1"/>
-    <row r="84" spans="1:1" hidden="1"/>
-    <row r="85" spans="1:1" hidden="1">
+    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:1" hidden="1">
+    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:1" hidden="1">
+    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:1" hidden="1">
+    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:1" hidden="1">
+    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="90" spans="1:1" hidden="1">
+    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1">
+    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:1" hidden="1">
+    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="1:1" hidden="1">
+    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="94" spans="1:1" hidden="1">
+    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="95" spans="1:1" hidden="1">
+    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:1" hidden="1">
+    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="1:1" hidden="1">
+    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:1" hidden="1">
+    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="1:1" hidden="1">
+    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="100" spans="1:1" hidden="1">
+    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:1" hidden="1">
+    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="102" spans="1:1" hidden="1">
+    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="103" spans="1:1" hidden="1">
+    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="104" spans="1:1" hidden="1">
+    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="105" spans="1:1" hidden="1">
+    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="106" spans="1:1" hidden="1">
+    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="107" spans="1:1" hidden="1">
+    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="108" spans="1:1" hidden="1">
+    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="109" spans="1:1" hidden="1">
+    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="110" spans="1:1" hidden="1">
+    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="111" spans="1:1" hidden="1">
+    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="112" spans="1:1" hidden="1">
+    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="113" spans="1:1" hidden="1">
+    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="114" spans="1:1" hidden="1">
+    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1">
+    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1">
+    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="117" spans="1:1" hidden="1">
+    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="118" spans="1:1" hidden="1">
+    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="119" spans="1:1" hidden="1">
+    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="120" spans="1:1" hidden="1">
+    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="121" spans="1:1" hidden="1">
+    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="122" spans="1:1" hidden="1"/>
-    <row r="123" spans="1:1" hidden="1"/>
-    <row r="124" spans="1:1" hidden="1"/>
-    <row r="125" spans="1:1" hidden="1"/>
-    <row r="126" spans="1:1" hidden="1"/>
-    <row r="127" spans="1:1" hidden="1"/>
-    <row r="128" spans="1:1" hidden="1"/>
-    <row r="129" hidden="1"/>
-    <row r="130" hidden="1"/>
-    <row r="131" hidden="1"/>
-    <row r="132" hidden="1"/>
-    <row r="133" hidden="1"/>
-    <row r="134" hidden="1"/>
-    <row r="135" hidden="1"/>
-    <row r="136" hidden="1"/>
-    <row r="137" hidden="1"/>
-    <row r="138" hidden="1"/>
-    <row r="139" hidden="1"/>
-    <row r="140" hidden="1"/>
-    <row r="141" hidden="1"/>
-    <row r="142" hidden="1"/>
-    <row r="143" hidden="1"/>
-    <row r="144" hidden="1"/>
-    <row r="145" hidden="1"/>
-    <row r="146" hidden="1"/>
-    <row r="147" hidden="1"/>
-    <row r="148" hidden="1"/>
-    <row r="149" hidden="1"/>
-    <row r="150" hidden="1"/>
-    <row r="151" hidden="1"/>
-    <row r="152" hidden="1"/>
-    <row r="153" hidden="1"/>
-    <row r="154" hidden="1"/>
-    <row r="155" hidden="1"/>
-    <row r="156" hidden="1"/>
-    <row r="157" hidden="1"/>
-    <row r="158" hidden="1"/>
-    <row r="159" hidden="1"/>
-    <row r="160" hidden="1"/>
-    <row r="161" hidden="1"/>
-    <row r="162" hidden="1"/>
-    <row r="163" hidden="1"/>
-    <row r="164" hidden="1"/>
-    <row r="165" hidden="1"/>
-    <row r="166" hidden="1"/>
-    <row r="167" hidden="1"/>
-    <row r="168" hidden="1"/>
-    <row r="169" hidden="1"/>
-    <row r="170" hidden="1"/>
-    <row r="171" hidden="1"/>
-    <row r="172" hidden="1"/>
-    <row r="173" hidden="1"/>
-    <row r="174" hidden="1"/>
-    <row r="175" hidden="1"/>
-    <row r="176" hidden="1"/>
-    <row r="177" hidden="1"/>
-    <row r="178" hidden="1"/>
-    <row r="179" hidden="1"/>
-    <row r="180" hidden="1"/>
-    <row r="181" hidden="1"/>
-    <row r="182" hidden="1"/>
-    <row r="183" hidden="1"/>
-    <row r="184" hidden="1"/>
-    <row r="185" hidden="1"/>
-    <row r="186" hidden="1"/>
-    <row r="187" hidden="1"/>
-    <row r="188" hidden="1"/>
-    <row r="189" hidden="1"/>
-    <row r="190" hidden="1"/>
-    <row r="191" hidden="1"/>
-    <row r="192" hidden="1"/>
-    <row r="193" hidden="1"/>
-    <row r="194" hidden="1"/>
-    <row r="195" hidden="1"/>
-    <row r="196" hidden="1"/>
-    <row r="197" hidden="1"/>
-    <row r="198" hidden="1"/>
-    <row r="199" hidden="1"/>
-    <row r="200" hidden="1"/>
-    <row r="201" hidden="1"/>
-    <row r="202" hidden="1"/>
-    <row r="203" hidden="1"/>
-    <row r="204" hidden="1"/>
-    <row r="205" hidden="1"/>
-    <row r="206" hidden="1"/>
-    <row r="207" hidden="1"/>
-    <row r="208" hidden="1"/>
-    <row r="209" hidden="1"/>
-    <row r="210" hidden="1"/>
-    <row r="211" hidden="1"/>
-    <row r="212" hidden="1"/>
-    <row r="213" hidden="1"/>
-    <row r="214" hidden="1"/>
-    <row r="215" hidden="1"/>
-    <row r="216" hidden="1"/>
-    <row r="217" hidden="1"/>
-    <row r="218" hidden="1"/>
-    <row r="219" hidden="1"/>
-    <row r="220" hidden="1"/>
-    <row r="221" hidden="1"/>
-    <row r="222" hidden="1"/>
-    <row r="223" hidden="1"/>
-    <row r="224" hidden="1"/>
-    <row r="225" hidden="1"/>
-    <row r="226" hidden="1"/>
-    <row r="227" hidden="1"/>
-    <row r="228" hidden="1"/>
-    <row r="229" hidden="1"/>
-    <row r="230" hidden="1"/>
-    <row r="231" hidden="1"/>
-    <row r="232" hidden="1"/>
-    <row r="233" hidden="1"/>
-    <row r="234" hidden="1"/>
-    <row r="235" hidden="1"/>
-    <row r="236" hidden="1"/>
-    <row r="237" hidden="1"/>
-    <row r="238" hidden="1"/>
-    <row r="239" hidden="1"/>
-    <row r="240" hidden="1"/>
-    <row r="241" hidden="1"/>
-    <row r="242" hidden="1"/>
-    <row r="243" hidden="1"/>
-    <row r="244" hidden="1"/>
-    <row r="245" hidden="1"/>
-    <row r="246" hidden="1"/>
-    <row r="247" hidden="1"/>
-    <row r="248" hidden="1"/>
-    <row r="249" hidden="1"/>
-    <row r="250" hidden="1"/>
-    <row r="251" hidden="1"/>
-    <row r="252" hidden="1"/>
-    <row r="253" hidden="1"/>
-    <row r="254" hidden="1"/>
-    <row r="255" hidden="1"/>
-    <row r="256" hidden="1"/>
-    <row r="257" hidden="1"/>
-    <row r="258" hidden="1"/>
-    <row r="259" hidden="1"/>
-    <row r="260" hidden="1"/>
-    <row r="261" hidden="1"/>
-    <row r="262" hidden="1"/>
-    <row r="263" hidden="1"/>
-    <row r="264" hidden="1"/>
-    <row r="265" hidden="1"/>
-    <row r="266" hidden="1"/>
-    <row r="267" hidden="1"/>
-    <row r="268" hidden="1"/>
-    <row r="269" hidden="1"/>
-    <row r="270" hidden="1"/>
-    <row r="271" hidden="1"/>
-    <row r="272" hidden="1"/>
-    <row r="273" hidden="1"/>
-    <row r="274" hidden="1"/>
-    <row r="275" hidden="1"/>
-    <row r="276" hidden="1"/>
-    <row r="277" hidden="1"/>
-    <row r="278" hidden="1"/>
-    <row r="279" hidden="1"/>
-    <row r="280" hidden="1"/>
-    <row r="281" hidden="1"/>
-    <row r="282" hidden="1"/>
-    <row r="283" hidden="1"/>
-    <row r="284" hidden="1"/>
+    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="252" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="253" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="257" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="260" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="261" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="262" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="263" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="264" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="265" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="266" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="267" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="268" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="269" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="270" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="271" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="284" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:U2">
+  <autoFilter ref="A1:U39">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5017,6 +5016,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -5064,34 +5069,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:O133"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="34" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="17" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" style="2"/>
-    <col min="14" max="14" width="24.33203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="69.83203125" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.33203125" style="2"/>
+    <col min="13" max="13" width="11.28515625" style="2"/>
+    <col min="14" max="14" width="24.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="69.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="15">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -5108,7 +5113,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -5132,7 +5137,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -5151,7 +5156,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="15">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -5170,7 +5175,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -5186,7 +5191,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="15">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -5203,7 +5208,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="15">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -5220,7 +5225,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="15">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5235,7 +5240,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="15">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -5250,7 +5255,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="15">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -5265,7 +5270,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="15">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -5280,7 +5285,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="15">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -5295,7 +5300,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="15">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -5310,7 +5315,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="15">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -5325,7 +5330,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="15">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -5340,7 +5345,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="15">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -5355,7 +5360,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="15">
+    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
@@ -5369,7 +5374,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="15">
+    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
@@ -5383,7 +5388,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="15">
+    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
@@ -5397,7 +5402,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="2:12" ht="15">
+    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="2" t="s">
@@ -5411,7 +5416,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="2:12" ht="15">
+    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -5426,7 +5431,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="2:12" ht="15">
+    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -5441,7 +5446,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="2:12" ht="15">
+    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -5456,7 +5461,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="2:12" ht="15">
+    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -5471,7 +5476,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="2:12" ht="15">
+    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -5486,7 +5491,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="2:12" ht="15">
+    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -5501,7 +5506,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="2:12" ht="15">
+    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -5516,7 +5521,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="2:12" ht="15">
+    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -5531,7 +5536,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="2:12" ht="15">
+    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -5546,7 +5551,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="2:12" ht="15">
+    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -5561,7 +5566,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="2:12" ht="15">
+    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -5576,7 +5581,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="2:12" ht="15">
+    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -5591,7 +5596,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" ht="15">
+    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -5606,7 +5611,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" ht="15">
+    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -5621,7 +5626,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" ht="15">
+    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -5636,7 +5641,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="2:12" ht="15">
+    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -5651,7 +5656,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="2:12" ht="15">
+    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -5666,7 +5671,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="2:12" ht="15">
+    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -5681,7 +5686,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="2:12" ht="15">
+    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -5696,7 +5701,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" ht="15">
+    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -5711,7 +5716,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" ht="15">
+    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -5726,7 +5731,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" ht="15">
+    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -5741,7 +5746,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" ht="15">
+    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -5756,7 +5761,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" ht="15">
+    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -5771,7 +5776,7 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" ht="15">
+    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -5786,7 +5791,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" ht="15">
+    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -5801,7 +5806,7 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" ht="15">
+    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -5816,7 +5821,7 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" ht="15">
+    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -5831,7 +5836,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="2:12" ht="15">
+    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -5843,7 +5848,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="2:12" ht="15">
+    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -5855,7 +5860,7 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="2:12" ht="15">
+    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -5868,7 +5873,7 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="2:12" ht="15">
+    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -5881,7 +5886,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="2:12" ht="15">
+    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -5894,7 +5899,7 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="2:12" ht="15">
+    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -5907,7 +5912,7 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="2:12" ht="15">
+    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -5920,7 +5925,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="2:12" ht="15">
+    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -5933,7 +5938,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="2:12" ht="15">
+    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -5946,7 +5951,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="2:12" ht="15">
+    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -5959,7 +5964,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="2:12" ht="15">
+    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -5972,7 +5977,7 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="2:12" ht="15">
+    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -5985,7 +5990,7 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="2:12" ht="15">
+    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -5998,7 +6003,7 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="2:12" ht="15">
+    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -6011,7 +6016,7 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="2:12" ht="15">
+    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -6024,7 +6029,7 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="2:12" ht="15">
+    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -6037,7 +6042,7 @@
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" ht="15">
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -6050,7 +6055,7 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" ht="15">
+    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -6063,7 +6068,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" ht="15">
+    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -6076,7 +6081,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="15">
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -6089,7 +6094,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:12" ht="15">
+    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -6102,7 +6107,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12" ht="15">
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -6115,7 +6120,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12" ht="15">
+    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -6129,7 +6134,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12" ht="15">
+    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -6143,7 +6148,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" ht="15">
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -6157,7 +6162,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" ht="15">
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -6171,7 +6176,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" ht="15">
+    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -6185,7 +6190,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" ht="15">
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -6199,7 +6204,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" ht="15">
+    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -6213,7 +6218,7 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" ht="15">
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -6227,7 +6232,7 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" ht="15">
+    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -6241,7 +6246,7 @@
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="15">
+    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -6255,7 +6260,7 @@
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12" ht="15">
+    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -6269,7 +6274,7 @@
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12" ht="15">
+    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -6283,7 +6288,7 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" ht="15">
+    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -6297,7 +6302,7 @@
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12" ht="15">
+    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -6311,7 +6316,7 @@
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:12" ht="15">
+    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -6325,7 +6330,7 @@
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="1:12" ht="15">
+    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -6339,7 +6344,7 @@
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:12" ht="15">
+    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -6353,7 +6358,7 @@
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="1:12" ht="15">
+    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -6367,7 +6372,7 @@
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="1:12" ht="15">
+    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -6381,7 +6386,7 @@
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="1:12" ht="15">
+    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -6395,7 +6400,7 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="1:12" ht="15">
+    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -6409,7 +6414,7 @@
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="15">
+    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -6423,7 +6428,7 @@
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="1:12" ht="15">
+    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -6437,7 +6442,7 @@
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="1:12" ht="15">
+    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -6451,7 +6456,7 @@
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12" ht="15">
+    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -6465,7 +6470,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:12" ht="15">
+    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -6479,7 +6484,7 @@
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:12" ht="15">
+    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -6493,7 +6498,7 @@
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="1:12" ht="15">
+    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -6507,7 +6512,7 @@
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:12" ht="15">
+    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -6521,7 +6526,7 @@
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="1:12" ht="15">
+    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -6535,7 +6540,7 @@
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="1:12" ht="15">
+    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -6549,7 +6554,7 @@
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" ht="15">
+    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -6563,7 +6568,7 @@
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
     </row>
-    <row r="103" spans="1:12" ht="15">
+    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -6577,7 +6582,7 @@
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" ht="15">
+    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -6591,7 +6596,7 @@
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
     </row>
-    <row r="105" spans="1:12" ht="15">
+    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -6605,7 +6610,7 @@
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" spans="1:12" ht="15">
+    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -6619,7 +6624,7 @@
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
     </row>
-    <row r="107" spans="1:12" ht="15">
+    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -6633,7 +6638,7 @@
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
     </row>
-    <row r="108" spans="1:12" ht="15">
+    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -6647,7 +6652,7 @@
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
     </row>
-    <row r="109" spans="1:12" ht="15">
+    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -6661,7 +6666,7 @@
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
     </row>
-    <row r="110" spans="1:12" ht="15">
+    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -6675,7 +6680,7 @@
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" spans="1:12" ht="15">
+    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -6689,7 +6694,7 @@
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="1:12" ht="15">
+    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -6703,7 +6708,7 @@
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
     </row>
-    <row r="113" spans="1:12" ht="15">
+    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -6717,7 +6722,7 @@
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
     </row>
-    <row r="114" spans="1:12" ht="15">
+    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -6731,7 +6736,7 @@
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
     </row>
-    <row r="115" spans="1:12" ht="15">
+    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -6745,7 +6750,7 @@
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" ht="15">
+    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -6759,7 +6764,7 @@
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
     </row>
-    <row r="117" spans="1:12" ht="15">
+    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -6773,7 +6778,7 @@
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
     </row>
-    <row r="118" spans="1:12" ht="15">
+    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -6787,7 +6792,7 @@
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
     </row>
-    <row r="119" spans="1:12" ht="15">
+    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -6801,7 +6806,7 @@
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" spans="1:12" ht="15">
+    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -6815,7 +6820,7 @@
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
     </row>
-    <row r="121" spans="1:12" ht="15">
+    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -6829,7 +6834,7 @@
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
     </row>
-    <row r="122" spans="1:12" ht="15">
+    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -6843,7 +6848,7 @@
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
     </row>
-    <row r="123" spans="1:12" ht="15">
+    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -6857,7 +6862,7 @@
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
     </row>
-    <row r="124" spans="1:12" ht="15">
+    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -6871,7 +6876,7 @@
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
     </row>
-    <row r="125" spans="1:12" ht="15">
+    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -6885,7 +6890,7 @@
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
     </row>
-    <row r="126" spans="1:12" ht="15">
+    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -6899,7 +6904,7 @@
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
     </row>
-    <row r="127" spans="1:12" ht="15">
+    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -6913,7 +6918,7 @@
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" ht="15">
+    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -6927,7 +6932,7 @@
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
     </row>
-    <row r="129" spans="1:12" ht="15">
+    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -6941,7 +6946,7 @@
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
     </row>
-    <row r="130" spans="1:12" ht="15">
+    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -6955,7 +6960,7 @@
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
     </row>
-    <row r="131" spans="1:12" ht="15">
+    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -6969,7 +6974,7 @@
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
     </row>
-    <row r="132" spans="1:12" ht="15">
+    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -6983,7 +6988,7 @@
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
     </row>
-    <row r="133" spans="1:12" ht="15">
+    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>

--- a/fuentes/contenidos/grado10/guion01/EscaletaCN_10_01F.xlsx
+++ b/fuentes/contenidos/grado10/guion01/EscaletaCN_10_01F.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado10\guion01\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="1965" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="2780" yWindow="1960" windowWidth="19200" windowHeight="11600"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -18,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$39</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="251">
   <si>
     <t>Asignatura</t>
   </si>
@@ -776,6 +771,15 @@
   </si>
   <si>
     <t>Recurso M5A-02</t>
+  </si>
+  <si>
+    <t>Evalúa qué tanto sabes sobre la Física</t>
+  </si>
+  <si>
+    <t>Evalúa qué tanto sabes sobre la Química</t>
+  </si>
+  <si>
+    <t>La ciencia y el mundo de la física y la química</t>
   </si>
 </sst>
 </file>
@@ -1647,39 +1651,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1"/>
+  <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:V284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4:K34"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.85546875" customWidth="1"/>
-    <col min="6" max="6" width="35.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="62.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.83203125" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.83203125" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="62.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
     <col min="10" max="10" width="119" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" customWidth="1"/>
-    <col min="13" max="14" width="9.28515625" customWidth="1"/>
-    <col min="15" max="15" width="51.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="20.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" customWidth="1"/>
+    <col min="13" max="14" width="9.33203125" customWidth="1"/>
+    <col min="15" max="15" width="51.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.33203125" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="49.140625" customWidth="1"/>
-    <col min="21" max="21" width="21.7109375" customWidth="1"/>
+    <col min="19" max="19" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="49.1640625" customWidth="1"/>
+    <col min="21" max="21" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="30" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="30" customFormat="1" ht="33.75" customHeight="1">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -1742,7 +1746,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A2" s="51"/>
       <c r="B2" s="49"/>
       <c r="C2" s="60"/>
@@ -1769,7 +1773,7 @@
       <c r="T2" s="43"/>
       <c r="U2" s="41"/>
     </row>
-    <row r="3" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="16" thickTop="1">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
@@ -1828,7 +1832,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="15">
       <c r="A4" s="18" t="s">
         <v>17</v>
       </c>
@@ -1887,7 +1891,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="15" customHeight="1">
       <c r="A5" s="18" t="s">
         <v>17</v>
       </c>
@@ -1944,7 +1948,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="15" customHeight="1">
       <c r="A6" s="18" t="s">
         <v>17</v>
       </c>
@@ -2001,7 +2005,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="15" customHeight="1">
       <c r="A7" s="18" t="s">
         <v>17</v>
       </c>
@@ -2060,7 +2064,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="15">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
@@ -2117,7 +2121,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="15">
       <c r="A9" s="18" t="s">
         <v>17</v>
       </c>
@@ -2174,7 +2178,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="15">
       <c r="A10" s="18" t="s">
         <v>17</v>
       </c>
@@ -2233,7 +2237,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="15">
       <c r="A11" s="18" t="s">
         <v>17</v>
       </c>
@@ -2294,7 +2298,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="15">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -2355,7 +2359,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="15">
       <c r="A13" s="18" t="s">
         <v>17</v>
       </c>
@@ -2416,7 +2420,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="15">
       <c r="A14" s="18" t="s">
         <v>17</v>
       </c>
@@ -2475,7 +2479,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="15">
       <c r="A15" s="18" t="s">
         <v>17</v>
       </c>
@@ -2538,7 +2542,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="16">
       <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
@@ -2600,7 +2604,7 @@
       </c>
       <c r="V16" s="35"/>
     </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="15">
       <c r="A17" s="18" t="s">
         <v>17</v>
       </c>
@@ -2659,7 +2663,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="15">
       <c r="A18" s="18" t="s">
         <v>17</v>
       </c>
@@ -2718,7 +2722,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="15">
       <c r="A19" s="18" t="s">
         <v>17</v>
       </c>
@@ -2777,7 +2781,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="15">
       <c r="A20" s="18" t="s">
         <v>17</v>
       </c>
@@ -2838,7 +2842,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="15">
       <c r="A21" s="18" t="s">
         <v>17</v>
       </c>
@@ -2897,7 +2901,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="15">
       <c r="A22" s="18" t="s">
         <v>17</v>
       </c>
@@ -2956,7 +2960,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="15">
       <c r="A23" s="18" t="s">
         <v>17</v>
       </c>
@@ -3015,7 +3019,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="15">
       <c r="A24" s="18" t="s">
         <v>17</v>
       </c>
@@ -3023,7 +3027,7 @@
         <v>124</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>197</v>
@@ -3074,7 +3078,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="15">
       <c r="A25" s="18" t="s">
         <v>17</v>
       </c>
@@ -3082,7 +3086,7 @@
         <v>124</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>197</v>
@@ -3131,7 +3135,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="15">
       <c r="A26" s="18" t="s">
         <v>17</v>
       </c>
@@ -3139,7 +3143,7 @@
         <v>124</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>197</v>
@@ -3190,7 +3194,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="15">
       <c r="A27" s="18" t="s">
         <v>17</v>
       </c>
@@ -3198,7 +3202,7 @@
         <v>124</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>213</v>
@@ -3247,7 +3251,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="15">
       <c r="A28" s="18" t="s">
         <v>17</v>
       </c>
@@ -3255,7 +3259,7 @@
         <v>124</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>213</v>
@@ -3306,7 +3310,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="15">
       <c r="A29" s="18" t="s">
         <v>17</v>
       </c>
@@ -3314,7 +3318,7 @@
         <v>124</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>220</v>
@@ -3363,7 +3367,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="15">
       <c r="A30" s="18" t="s">
         <v>17</v>
       </c>
@@ -3371,7 +3375,7 @@
         <v>124</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>220</v>
@@ -3420,7 +3424,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="15">
       <c r="A31" s="18" t="s">
         <v>17</v>
       </c>
@@ -3428,7 +3432,7 @@
         <v>124</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>220</v>
@@ -3477,7 +3481,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="15">
       <c r="A32" s="18" t="s">
         <v>17</v>
       </c>
@@ -3485,7 +3489,7 @@
         <v>124</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>220</v>
@@ -3536,7 +3540,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="15">
       <c r="A33" s="18" t="s">
         <v>17</v>
       </c>
@@ -3544,7 +3548,7 @@
         <v>124</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>231</v>
@@ -3593,7 +3597,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="15">
       <c r="A34" s="18" t="s">
         <v>17</v>
       </c>
@@ -3601,7 +3605,7 @@
         <v>124</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>231</v>
@@ -3650,7 +3654,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="15">
       <c r="A35" s="18" t="s">
         <v>17</v>
       </c>
@@ -3658,7 +3662,7 @@
         <v>124</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>237</v>
@@ -3695,7 +3699,7 @@
       <c r="T35" s="12"/>
       <c r="U35" s="10"/>
     </row>
-    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="15">
       <c r="A36" s="18" t="s">
         <v>17</v>
       </c>
@@ -3703,7 +3707,7 @@
         <v>124</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>237</v>
@@ -3720,7 +3724,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="23" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>20</v>
@@ -3752,7 +3756,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="15">
       <c r="A37" s="18" t="s">
         <v>17</v>
       </c>
@@ -3760,7 +3764,7 @@
         <v>124</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>237</v>
@@ -3777,7 +3781,7 @@
         <v>20</v>
       </c>
       <c r="J37" s="23" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>20</v>
@@ -3809,7 +3813,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="15">
       <c r="A38" s="18" t="s">
         <v>17</v>
       </c>
@@ -3817,7 +3821,7 @@
         <v>124</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>237</v>
@@ -3866,7 +3870,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="15">
       <c r="A39" s="18" t="s">
         <v>17</v>
       </c>
@@ -3874,7 +3878,7 @@
         <v>124</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>237</v>
@@ -3923,7 +3927,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="15">
       <c r="A40" s="4"/>
       <c r="B40" s="13"/>
       <c r="C40" s="14"/>
@@ -3946,7 +3950,7 @@
       <c r="T40" s="12"/>
       <c r="U40" s="10"/>
     </row>
-    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="15">
       <c r="A41" s="4"/>
       <c r="B41" s="13"/>
       <c r="C41" s="14"/>
@@ -3969,7 +3973,7 @@
       <c r="T41" s="12"/>
       <c r="U41" s="10"/>
     </row>
-    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="15">
       <c r="A42" s="4"/>
       <c r="B42" s="13"/>
       <c r="C42" s="14"/>
@@ -3992,7 +3996,7 @@
       <c r="T42" s="12"/>
       <c r="U42" s="10"/>
     </row>
-    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="15">
       <c r="A43" s="4"/>
       <c r="B43" s="13"/>
       <c r="C43" s="14"/>
@@ -4015,7 +4019,7 @@
       <c r="T43" s="12"/>
       <c r="U43" s="10"/>
     </row>
-    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="15">
       <c r="A44" s="4"/>
       <c r="B44" s="13"/>
       <c r="C44" s="14"/>
@@ -4038,7 +4042,7 @@
       <c r="T44" s="12"/>
       <c r="U44" s="10"/>
     </row>
-    <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="15">
       <c r="A45" s="4"/>
       <c r="B45" s="13"/>
       <c r="C45" s="14"/>
@@ -4061,7 +4065,7 @@
       <c r="T45" s="12"/>
       <c r="U45" s="10"/>
     </row>
-    <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="15">
       <c r="A46" s="4"/>
       <c r="B46" s="13"/>
       <c r="C46" s="14"/>
@@ -4084,7 +4088,7 @@
       <c r="T46" s="12"/>
       <c r="U46" s="10"/>
     </row>
-    <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="15">
       <c r="A47" s="4"/>
       <c r="B47" s="13"/>
       <c r="C47" s="14"/>
@@ -4107,7 +4111,7 @@
       <c r="T47" s="12"/>
       <c r="U47" s="10"/>
     </row>
-    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="15">
       <c r="A48" s="4"/>
       <c r="B48" s="13"/>
       <c r="C48" s="14"/>
@@ -4130,7 +4134,7 @@
       <c r="T48" s="12"/>
       <c r="U48" s="10"/>
     </row>
-    <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="15">
       <c r="A49" s="4"/>
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
@@ -4153,7 +4157,7 @@
       <c r="T49" s="12"/>
       <c r="U49" s="10"/>
     </row>
-    <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="15">
       <c r="A50" s="4"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
@@ -4176,7 +4180,7 @@
       <c r="T50" s="12"/>
       <c r="U50" s="10"/>
     </row>
-    <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="15">
       <c r="A51" s="4"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
@@ -4199,7 +4203,7 @@
       <c r="T51" s="12"/>
       <c r="U51" s="10"/>
     </row>
-    <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="15">
       <c r="A52" s="4"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
@@ -4222,7 +4226,7 @@
       <c r="T52" s="12"/>
       <c r="U52" s="10"/>
     </row>
-    <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="15">
       <c r="A53" s="4"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -4245,7 +4249,7 @@
       <c r="T53" s="12"/>
       <c r="U53" s="10"/>
     </row>
-    <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="15">
       <c r="A54" s="4"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -4268,7 +4272,7 @@
       <c r="T54" s="12"/>
       <c r="U54" s="10"/>
     </row>
-    <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="15">
       <c r="A55" s="4"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -4291,7 +4295,7 @@
       <c r="T55" s="12"/>
       <c r="U55" s="10"/>
     </row>
-    <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="15">
       <c r="A56" s="4"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -4314,7 +4318,7 @@
       <c r="T56" s="12"/>
       <c r="U56" s="10"/>
     </row>
-    <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="15">
       <c r="A57" s="4"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
@@ -4337,7 +4341,7 @@
       <c r="T57" s="12"/>
       <c r="U57" s="10"/>
     </row>
-    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" ht="15">
       <c r="A58" s="4"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
@@ -4360,7 +4364,7 @@
       <c r="T58" s="12"/>
       <c r="U58" s="10"/>
     </row>
-    <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="15">
       <c r="A59" s="4"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
@@ -4383,7 +4387,7 @@
       <c r="T59" s="12"/>
       <c r="U59" s="10"/>
     </row>
-    <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" ht="15">
       <c r="A60" s="4"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -4406,7 +4410,7 @@
       <c r="T60" s="12"/>
       <c r="U60" s="10"/>
     </row>
-    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" ht="15">
       <c r="A61" s="4"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -4429,7 +4433,7 @@
       <c r="T61" s="12"/>
       <c r="U61" s="10"/>
     </row>
-    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" ht="15">
       <c r="A62" s="4"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -4452,7 +4456,7 @@
       <c r="T62" s="12"/>
       <c r="U62" s="10"/>
     </row>
-    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="15">
       <c r="A63" s="4"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -4475,7 +4479,7 @@
       <c r="T63" s="12"/>
       <c r="U63" s="10"/>
     </row>
-    <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="15">
       <c r="A64" s="4"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -4498,7 +4502,7 @@
       <c r="T64" s="12"/>
       <c r="U64" s="10"/>
     </row>
-    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" ht="15">
       <c r="A65" s="4"/>
       <c r="B65" s="13"/>
       <c r="C65" s="14"/>
@@ -4521,7 +4525,7 @@
       <c r="T65" s="12"/>
       <c r="U65" s="10"/>
     </row>
-    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" ht="15">
       <c r="A66" s="4"/>
       <c r="B66" s="13"/>
       <c r="C66" s="14"/>
@@ -4544,7 +4548,7 @@
       <c r="T66" s="12"/>
       <c r="U66" s="10"/>
     </row>
-    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" ht="15">
       <c r="A67" s="4"/>
       <c r="B67" s="13"/>
       <c r="C67" s="14"/>
@@ -4567,7 +4571,7 @@
       <c r="T67" s="12"/>
       <c r="U67" s="10"/>
     </row>
-    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" ht="15">
       <c r="A68" s="4"/>
       <c r="B68" s="13"/>
       <c r="C68" s="14"/>
@@ -4590,7 +4594,7 @@
       <c r="T68" s="12"/>
       <c r="U68" s="10"/>
     </row>
-    <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" ht="15">
       <c r="A69" s="4"/>
       <c r="B69" s="13"/>
       <c r="C69" s="14"/>
@@ -4613,7 +4617,7 @@
       <c r="T69" s="12"/>
       <c r="U69" s="10"/>
     </row>
-    <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" ht="15">
       <c r="A70" s="4"/>
       <c r="B70" s="13"/>
       <c r="C70" s="14"/>
@@ -4636,367 +4640,367 @@
       <c r="T70" s="12"/>
       <c r="U70" s="10"/>
     </row>
-    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" hidden="1"/>
+    <row r="73" spans="1:21" hidden="1"/>
+    <row r="74" spans="1:21" hidden="1"/>
+    <row r="75" spans="1:21" hidden="1"/>
+    <row r="76" spans="1:21" hidden="1"/>
+    <row r="77" spans="1:21" hidden="1"/>
+    <row r="78" spans="1:21" hidden="1"/>
+    <row r="79" spans="1:21" hidden="1"/>
+    <row r="80" spans="1:21" hidden="1"/>
+    <row r="81" spans="1:1" hidden="1"/>
+    <row r="82" spans="1:1" hidden="1"/>
+    <row r="83" spans="1:1" hidden="1"/>
+    <row r="84" spans="1:1" hidden="1"/>
+    <row r="85" spans="1:1" hidden="1">
       <c r="A85" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" hidden="1">
       <c r="A86" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" hidden="1">
       <c r="A87" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" hidden="1">
       <c r="A88" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" hidden="1">
       <c r="A89" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" hidden="1">
       <c r="A90" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" hidden="1">
       <c r="A91" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" hidden="1">
       <c r="A92" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" hidden="1">
       <c r="A93" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" hidden="1">
       <c r="A94" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" hidden="1">
       <c r="A95" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" hidden="1">
       <c r="A96" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" hidden="1">
       <c r="A97" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" hidden="1">
       <c r="A98" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" hidden="1">
       <c r="A99" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" hidden="1">
       <c r="A100" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" hidden="1">
       <c r="A101" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" hidden="1">
       <c r="A102" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" hidden="1">
       <c r="A103" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" hidden="1">
       <c r="A104" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" hidden="1">
       <c r="A105" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" hidden="1">
       <c r="A106" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" hidden="1">
       <c r="A107" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" hidden="1">
       <c r="A108" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" hidden="1">
       <c r="A109" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" hidden="1">
       <c r="A110" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" hidden="1">
       <c r="A111" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" hidden="1">
       <c r="A112" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" hidden="1">
       <c r="A113" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" hidden="1">
       <c r="A114" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" hidden="1">
       <c r="A115" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" hidden="1">
       <c r="A116" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" hidden="1">
       <c r="A117" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" hidden="1">
       <c r="A118" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" hidden="1">
       <c r="A119" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" hidden="1">
       <c r="A120" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" hidden="1">
       <c r="A121" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="252" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="253" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="257" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="260" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="261" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="262" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="263" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="264" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="265" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="266" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="267" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="268" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="269" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="270" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="271" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="284" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:1" hidden="1"/>
+    <row r="123" spans="1:1" hidden="1"/>
+    <row r="124" spans="1:1" hidden="1"/>
+    <row r="125" spans="1:1" hidden="1"/>
+    <row r="126" spans="1:1" hidden="1"/>
+    <row r="127" spans="1:1" hidden="1"/>
+    <row r="128" spans="1:1" hidden="1"/>
+    <row r="129" hidden="1"/>
+    <row r="130" hidden="1"/>
+    <row r="131" hidden="1"/>
+    <row r="132" hidden="1"/>
+    <row r="133" hidden="1"/>
+    <row r="134" hidden="1"/>
+    <row r="135" hidden="1"/>
+    <row r="136" hidden="1"/>
+    <row r="137" hidden="1"/>
+    <row r="138" hidden="1"/>
+    <row r="139" hidden="1"/>
+    <row r="140" hidden="1"/>
+    <row r="141" hidden="1"/>
+    <row r="142" hidden="1"/>
+    <row r="143" hidden="1"/>
+    <row r="144" hidden="1"/>
+    <row r="145" hidden="1"/>
+    <row r="146" hidden="1"/>
+    <row r="147" hidden="1"/>
+    <row r="148" hidden="1"/>
+    <row r="149" hidden="1"/>
+    <row r="150" hidden="1"/>
+    <row r="151" hidden="1"/>
+    <row r="152" hidden="1"/>
+    <row r="153" hidden="1"/>
+    <row r="154" hidden="1"/>
+    <row r="155" hidden="1"/>
+    <row r="156" hidden="1"/>
+    <row r="157" hidden="1"/>
+    <row r="158" hidden="1"/>
+    <row r="159" hidden="1"/>
+    <row r="160" hidden="1"/>
+    <row r="161" hidden="1"/>
+    <row r="162" hidden="1"/>
+    <row r="163" hidden="1"/>
+    <row r="164" hidden="1"/>
+    <row r="165" hidden="1"/>
+    <row r="166" hidden="1"/>
+    <row r="167" hidden="1"/>
+    <row r="168" hidden="1"/>
+    <row r="169" hidden="1"/>
+    <row r="170" hidden="1"/>
+    <row r="171" hidden="1"/>
+    <row r="172" hidden="1"/>
+    <row r="173" hidden="1"/>
+    <row r="174" hidden="1"/>
+    <row r="175" hidden="1"/>
+    <row r="176" hidden="1"/>
+    <row r="177" hidden="1"/>
+    <row r="178" hidden="1"/>
+    <row r="179" hidden="1"/>
+    <row r="180" hidden="1"/>
+    <row r="181" hidden="1"/>
+    <row r="182" hidden="1"/>
+    <row r="183" hidden="1"/>
+    <row r="184" hidden="1"/>
+    <row r="185" hidden="1"/>
+    <row r="186" hidden="1"/>
+    <row r="187" hidden="1"/>
+    <row r="188" hidden="1"/>
+    <row r="189" hidden="1"/>
+    <row r="190" hidden="1"/>
+    <row r="191" hidden="1"/>
+    <row r="192" hidden="1"/>
+    <row r="193" hidden="1"/>
+    <row r="194" hidden="1"/>
+    <row r="195" hidden="1"/>
+    <row r="196" hidden="1"/>
+    <row r="197" hidden="1"/>
+    <row r="198" hidden="1"/>
+    <row r="199" hidden="1"/>
+    <row r="200" hidden="1"/>
+    <row r="201" hidden="1"/>
+    <row r="202" hidden="1"/>
+    <row r="203" hidden="1"/>
+    <row r="204" hidden="1"/>
+    <row r="205" hidden="1"/>
+    <row r="206" hidden="1"/>
+    <row r="207" hidden="1"/>
+    <row r="208" hidden="1"/>
+    <row r="209" hidden="1"/>
+    <row r="210" hidden="1"/>
+    <row r="211" hidden="1"/>
+    <row r="212" hidden="1"/>
+    <row r="213" hidden="1"/>
+    <row r="214" hidden="1"/>
+    <row r="215" hidden="1"/>
+    <row r="216" hidden="1"/>
+    <row r="217" hidden="1"/>
+    <row r="218" hidden="1"/>
+    <row r="219" hidden="1"/>
+    <row r="220" hidden="1"/>
+    <row r="221" hidden="1"/>
+    <row r="222" hidden="1"/>
+    <row r="223" hidden="1"/>
+    <row r="224" hidden="1"/>
+    <row r="225" hidden="1"/>
+    <row r="226" hidden="1"/>
+    <row r="227" hidden="1"/>
+    <row r="228" hidden="1"/>
+    <row r="229" hidden="1"/>
+    <row r="230" hidden="1"/>
+    <row r="231" hidden="1"/>
+    <row r="232" hidden="1"/>
+    <row r="233" hidden="1"/>
+    <row r="234" hidden="1"/>
+    <row r="235" hidden="1"/>
+    <row r="236" hidden="1"/>
+    <row r="237" hidden="1"/>
+    <row r="238" hidden="1"/>
+    <row r="239" hidden="1"/>
+    <row r="240" hidden="1"/>
+    <row r="241" hidden="1"/>
+    <row r="242" hidden="1"/>
+    <row r="243" hidden="1"/>
+    <row r="244" hidden="1"/>
+    <row r="245" hidden="1"/>
+    <row r="246" hidden="1"/>
+    <row r="247" hidden="1"/>
+    <row r="248" hidden="1"/>
+    <row r="249" hidden="1"/>
+    <row r="250" hidden="1"/>
+    <row r="251" hidden="1"/>
+    <row r="252" hidden="1"/>
+    <row r="253" hidden="1"/>
+    <row r="254" hidden="1"/>
+    <row r="255" hidden="1"/>
+    <row r="256" hidden="1"/>
+    <row r="257" hidden="1"/>
+    <row r="258" hidden="1"/>
+    <row r="259" hidden="1"/>
+    <row r="260" hidden="1"/>
+    <row r="261" hidden="1"/>
+    <row r="262" hidden="1"/>
+    <row r="263" hidden="1"/>
+    <row r="264" hidden="1"/>
+    <row r="265" hidden="1"/>
+    <row r="266" hidden="1"/>
+    <row r="267" hidden="1"/>
+    <row r="268" hidden="1"/>
+    <row r="269" hidden="1"/>
+    <row r="270" hidden="1"/>
+    <row r="271" hidden="1"/>
+    <row r="272" hidden="1"/>
+    <row r="273" hidden="1"/>
+    <row r="274" hidden="1"/>
+    <row r="275" hidden="1"/>
+    <row r="276" hidden="1"/>
+    <row r="277" hidden="1"/>
+    <row r="278" hidden="1"/>
+    <row r="279" hidden="1"/>
+    <row r="280" hidden="1"/>
+    <row r="281" hidden="1"/>
+    <row r="282" hidden="1"/>
+    <row r="283" hidden="1"/>
+    <row r="284" hidden="1"/>
   </sheetData>
   <autoFilter ref="A1:U39">
     <filterColumn colId="12" showButton="0"/>
@@ -5069,34 +5073,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2"/>
+  <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:O133"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="34" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" style="2" customWidth="1"/>
     <col min="12" max="12" width="17" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" style="2"/>
-    <col min="14" max="14" width="24.28515625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="69.85546875" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.28515625" style="2"/>
+    <col min="13" max="13" width="11.33203125" style="2"/>
+    <col min="14" max="14" width="24.33203125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="69.83203125" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="15">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -5113,7 +5117,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -5137,7 +5141,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -5156,7 +5160,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -5175,7 +5179,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -5191,7 +5195,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -5208,7 +5212,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -5225,7 +5229,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5240,7 +5244,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -5255,7 +5259,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -5270,7 +5274,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -5285,7 +5289,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -5300,7 +5304,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -5315,7 +5319,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -5330,7 +5334,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -5345,7 +5349,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -5360,7 +5364,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="15">
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
@@ -5374,7 +5378,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="15">
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
@@ -5388,7 +5392,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="15">
       <c r="B19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
@@ -5402,7 +5406,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="15">
       <c r="B20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="2" t="s">
@@ -5416,7 +5420,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="15">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -5431,7 +5435,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="15">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -5446,7 +5450,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="15">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -5461,7 +5465,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="15">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -5476,7 +5480,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="15">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -5491,7 +5495,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="15">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -5506,7 +5510,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="15">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -5521,7 +5525,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="15">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -5536,7 +5540,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="15">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -5551,7 +5555,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="15">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -5566,7 +5570,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="15">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -5581,7 +5585,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="15">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -5596,7 +5600,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="15">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -5611,7 +5615,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="15">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -5626,7 +5630,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="15">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -5641,7 +5645,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="15">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -5656,7 +5660,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="15">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -5671,7 +5675,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="15">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -5686,7 +5690,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="15">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -5701,7 +5705,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" ht="15">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -5716,7 +5720,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="15">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -5731,7 +5735,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="15">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -5746,7 +5750,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" ht="15">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -5761,7 +5765,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="15">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -5776,7 +5780,7 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" ht="15">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -5791,7 +5795,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" ht="15">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -5806,7 +5810,7 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" ht="15">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -5821,7 +5825,7 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" ht="15">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -5836,7 +5840,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" ht="15">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -5848,7 +5852,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" ht="15">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -5860,7 +5864,7 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" ht="15">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -5873,7 +5877,7 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" ht="15">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -5886,7 +5890,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" ht="15">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -5899,7 +5903,7 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" ht="15">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -5912,7 +5916,7 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" ht="15">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -5925,7 +5929,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" ht="15">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -5938,7 +5942,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" ht="15">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -5951,7 +5955,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" ht="15">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -5964,7 +5968,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" ht="15">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -5977,7 +5981,7 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" ht="15">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -5990,7 +5994,7 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" ht="15">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -6003,7 +6007,7 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" ht="15">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -6016,7 +6020,7 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" ht="15">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -6029,7 +6033,7 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" ht="15">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -6042,7 +6046,7 @@
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="15">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -6055,7 +6059,7 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="15">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -6068,7 +6072,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="15">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -6081,7 +6085,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="15">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -6094,7 +6098,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="15">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -6107,7 +6111,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="15">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -6120,7 +6124,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="15">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -6134,7 +6138,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="15">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -6148,7 +6152,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="15">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -6162,7 +6166,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="15">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -6176,7 +6180,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="15">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -6190,7 +6194,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="15">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -6204,7 +6208,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="15">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -6218,7 +6222,7 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="15">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -6232,7 +6236,7 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="15">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -6246,7 +6250,7 @@
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="15">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -6260,7 +6264,7 @@
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="15">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -6274,7 +6278,7 @@
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="15">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -6288,7 +6292,7 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="15">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -6302,7 +6306,7 @@
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="15">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -6316,7 +6320,7 @@
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="15">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -6330,7 +6334,7 @@
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="15">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -6344,7 +6348,7 @@
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="15">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -6358,7 +6362,7 @@
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="15">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -6372,7 +6376,7 @@
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="15">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -6386,7 +6390,7 @@
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="15">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -6400,7 +6404,7 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="15">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -6414,7 +6418,7 @@
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="15">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -6428,7 +6432,7 @@
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="15">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -6442,7 +6446,7 @@
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="15">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -6456,7 +6460,7 @@
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="15">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -6470,7 +6474,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="15">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -6484,7 +6488,7 @@
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="15">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -6498,7 +6502,7 @@
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="15">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -6512,7 +6516,7 @@
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="15">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -6526,7 +6530,7 @@
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="15">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -6540,7 +6544,7 @@
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="15">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -6554,7 +6558,7 @@
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="15">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -6568,7 +6572,7 @@
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="15">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -6582,7 +6586,7 @@
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="15">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -6596,7 +6600,7 @@
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="15">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -6610,7 +6614,7 @@
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="15">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -6624,7 +6628,7 @@
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="15">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -6638,7 +6642,7 @@
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="15">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -6652,7 +6656,7 @@
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="15">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -6666,7 +6670,7 @@
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="15">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -6680,7 +6684,7 @@
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="15">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -6694,7 +6698,7 @@
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="15">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -6708,7 +6712,7 @@
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="15">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -6722,7 +6726,7 @@
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="15">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -6736,7 +6740,7 @@
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
     </row>
-    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="15">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -6750,7 +6754,7 @@
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="15">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -6764,7 +6768,7 @@
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="15">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -6778,7 +6782,7 @@
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="15">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -6792,7 +6796,7 @@
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="15">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -6806,7 +6810,7 @@
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="15">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -6820,7 +6824,7 @@
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="15">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -6834,7 +6838,7 @@
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="15">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -6848,7 +6852,7 @@
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="15">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -6862,7 +6866,7 @@
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="15">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -6876,7 +6880,7 @@
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
     </row>
-    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="15">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -6890,7 +6894,7 @@
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
     </row>
-    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="15">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -6904,7 +6908,7 @@
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="15">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -6918,7 +6922,7 @@
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="15">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -6932,7 +6936,7 @@
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
     </row>
-    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="15">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -6946,7 +6950,7 @@
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="15">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -6960,7 +6964,7 @@
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="15">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -6974,7 +6978,7 @@
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="15">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -6988,7 +6992,7 @@
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
     </row>
-    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="15">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>

--- a/fuentes/contenidos/grado10/guion01/EscaletaCN_10_01F.xlsx
+++ b/fuentes/contenidos/grado10/guion01/EscaletaCN_10_01F.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1960" windowWidth="19200" windowHeight="11600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14280"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="253">
   <si>
     <t>Asignatura</t>
   </si>
@@ -773,13 +773,19 @@
     <t>Recurso M5A-02</t>
   </si>
   <si>
-    <t>Evalúa qué tanto sabes sobre la Física</t>
-  </si>
-  <si>
-    <t>Evalúa qué tanto sabes sobre la Química</t>
-  </si>
-  <si>
     <t>La ciencia y el mundo de la física y la química</t>
+  </si>
+  <si>
+    <t>Revisa qué sabes sobre la física</t>
+  </si>
+  <si>
+    <t>Revisa qué sabe sobre la química</t>
+  </si>
+  <si>
+    <t>Revisa lo que sabes sobre algunos conceptos de la Física</t>
+  </si>
+  <si>
+    <t>Revisa lo que sabes sobre algunos conceptos de la Química</t>
   </si>
 </sst>
 </file>
@@ -972,8 +978,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="115">
+  <cellStyleXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1164,34 +1174,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1233,8 +1225,26 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="115">
+  <cellStyles count="119">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1292,6 +1302,8 @@
     <cellStyle name="Hipervínculo" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -1349,6 +1361,8 @@
     <cellStyle name="Hipervínculo visitado" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1655,8 +1669,8 @@
   <dimension ref="A1:V284"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1684,94 +1698,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="30" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="58"/>
-      <c r="O1" s="38" t="s">
+      <c r="N1" s="52"/>
+      <c r="O1" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="P1" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="40" t="s">
+      <c r="Q1" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="44" t="s">
+      <c r="R1" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="40" t="s">
+      <c r="S1" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="42" t="s">
+      <c r="T1" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="40" t="s">
+      <c r="U1" s="55" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="53"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="47"/>
       <c r="M2" s="31" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="56"/>
     </row>
     <row r="3" spans="1:22" ht="16" thickTop="1">
       <c r="A3" s="18" t="s">
@@ -3027,7 +3041,7 @@
         <v>124</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>197</v>
@@ -3086,7 +3100,7 @@
         <v>124</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>197</v>
@@ -3143,7 +3157,7 @@
         <v>124</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>197</v>
@@ -3202,7 +3216,7 @@
         <v>124</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>213</v>
@@ -3259,17 +3273,15 @@
         <v>124</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="E28" s="19" t="s">
-        <v>125</v>
-      </c>
+      <c r="E28" s="37"/>
       <c r="F28" s="9"/>
       <c r="G28" s="22" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="H28" s="21">
         <v>26</v>
@@ -3278,36 +3290,36 @@
         <v>20</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L28" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M28" s="8"/>
       <c r="N28" s="8" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="O28" s="9"/>
       <c r="P28" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="R28" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="S28" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="T28" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="U28" s="10" t="s">
-        <v>138</v>
+      <c r="Q28" s="32">
+        <v>10</v>
+      </c>
+      <c r="R28" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="S28" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="T28" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="U28" s="27" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15">
@@ -3318,35 +3330,37 @@
         <v>124</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="E29" s="19"/>
+        <v>213</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>125</v>
+      </c>
       <c r="F29" s="9"/>
       <c r="G29" s="22" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H29" s="21">
         <v>27</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="N29" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="O29" s="9"/>
       <c r="P29" s="9" t="s">
         <v>19</v>
@@ -3361,7 +3375,7 @@
         <v>136</v>
       </c>
       <c r="T29" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="U29" s="10" t="s">
         <v>138</v>
@@ -3375,7 +3389,7 @@
         <v>124</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>220</v>
@@ -3383,7 +3397,7 @@
       <c r="E30" s="19"/>
       <c r="F30" s="9"/>
       <c r="G30" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H30" s="21">
         <v>28</v>
@@ -3392,7 +3406,7 @@
         <v>19</v>
       </c>
       <c r="J30" s="23" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>19</v>
@@ -3401,7 +3415,7 @@
         <v>7</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="N30" s="8"/>
       <c r="O30" s="9"/>
@@ -3418,7 +3432,7 @@
         <v>136</v>
       </c>
       <c r="T30" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U30" s="10" t="s">
         <v>138</v>
@@ -3432,7 +3446,7 @@
         <v>124</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>220</v>
@@ -3440,27 +3454,27 @@
       <c r="E31" s="19"/>
       <c r="F31" s="9"/>
       <c r="G31" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H31" s="21">
         <v>29</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J31" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8" t="s">
-        <v>23</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N31" s="8"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9" t="s">
         <v>19</v>
@@ -3475,7 +3489,7 @@
         <v>136</v>
       </c>
       <c r="T31" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="U31" s="10" t="s">
         <v>138</v>
@@ -3489,17 +3503,15 @@
         <v>124</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="E32" s="19" t="s">
-        <v>125</v>
-      </c>
+      <c r="E32" s="19"/>
       <c r="F32" s="9"/>
       <c r="G32" s="22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H32" s="21">
         <v>30</v>
@@ -3508,7 +3520,7 @@
         <v>20</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>19</v>
@@ -3518,7 +3530,7 @@
       </c>
       <c r="M32" s="8"/>
       <c r="N32" s="8" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="O32" s="9"/>
       <c r="P32" s="9" t="s">
@@ -3534,7 +3546,7 @@
         <v>136</v>
       </c>
       <c r="T32" s="12" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="U32" s="10" t="s">
         <v>138</v>
@@ -3548,15 +3560,15 @@
         <v>124</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="E33" s="19"/>
+        <v>220</v>
+      </c>
+      <c r="E33" s="37"/>
       <c r="F33" s="9"/>
       <c r="G33" s="22" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="H33" s="21">
         <v>31</v>
@@ -3565,36 +3577,36 @@
         <v>20</v>
       </c>
       <c r="J33" s="23" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L33" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M33" s="8"/>
       <c r="N33" s="8" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="O33" s="9"/>
       <c r="P33" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="R33" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="S33" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="T33" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="U33" s="10" t="s">
-        <v>138</v>
+      <c r="Q33" s="32">
+        <v>10</v>
+      </c>
+      <c r="R33" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="S33" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="T33" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="U33" s="27" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="15">
@@ -3605,15 +3617,17 @@
         <v>124</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="E34" s="19"/>
+        <v>220</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>125</v>
+      </c>
       <c r="F34" s="9"/>
       <c r="G34" s="22" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="H34" s="21">
         <v>32</v>
@@ -3622,7 +3636,7 @@
         <v>20</v>
       </c>
       <c r="J34" s="23" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>19</v>
@@ -3632,7 +3646,7 @@
       </c>
       <c r="M34" s="8"/>
       <c r="N34" s="8" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="O34" s="9"/>
       <c r="P34" s="9" t="s">
@@ -3648,7 +3662,7 @@
         <v>136</v>
       </c>
       <c r="T34" s="12" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="U34" s="10" t="s">
         <v>138</v>
@@ -3662,15 +3676,15 @@
         <v>124</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="E35" s="37"/>
+        <v>231</v>
+      </c>
+      <c r="E35" s="19"/>
       <c r="F35" s="9"/>
       <c r="G35" s="22" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H35" s="21">
         <v>33</v>
@@ -3679,25 +3693,37 @@
         <v>20</v>
       </c>
       <c r="J35" s="23" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
+      <c r="N35" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="O35" s="9"/>
       <c r="P35" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="10"/>
+      <c r="Q35" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="R35" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="S35" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="T35" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="U35" s="10" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="36" spans="1:21" ht="15">
       <c r="A36" s="18" t="s">
@@ -3707,15 +3733,15 @@
         <v>124</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="E36" s="37"/>
+        <v>231</v>
+      </c>
+      <c r="E36" s="19"/>
       <c r="F36" s="9"/>
       <c r="G36" s="22" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H36" s="21">
         <v>34</v>
@@ -3724,36 +3750,36 @@
         <v>20</v>
       </c>
       <c r="J36" s="23" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L36" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M36" s="8"/>
       <c r="N36" s="8" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="O36" s="9"/>
       <c r="P36" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="32">
-        <v>10</v>
-      </c>
-      <c r="R36" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="S36" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="T36" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="U36" s="27" t="s">
-        <v>185</v>
+      <c r="Q36" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="R36" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="S36" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="T36" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="U36" s="10" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="15">
@@ -3764,7 +3790,7 @@
         <v>124</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>237</v>
@@ -3772,7 +3798,7 @@
       <c r="E37" s="37"/>
       <c r="F37" s="9"/>
       <c r="G37" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H37" s="21">
         <v>35</v>
@@ -3781,37 +3807,25 @@
         <v>20</v>
       </c>
       <c r="J37" s="23" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M37" s="8"/>
-      <c r="N37" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="N37" s="8"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q37" s="32">
-        <v>10</v>
-      </c>
-      <c r="R37" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="S37" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="T37" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="U37" s="27" t="s">
-        <v>185</v>
-      </c>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="10"/>
     </row>
     <row r="38" spans="1:21" ht="15">
       <c r="A38" s="18" t="s">
@@ -3821,7 +3835,7 @@
         <v>124</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>237</v>
@@ -3878,7 +3892,7 @@
         <v>124</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>237</v>
@@ -5006,6 +5020,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5020,12 +5040,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
